--- a/relatorios/repasses_liberados/dentistas/82483698468/2023-08-25_relatorio_repasses_82483698468.xlsx
+++ b/relatorios/repasses_liberados/dentistas/82483698468/2023-08-25_relatorio_repasses_82483698468.xlsx
@@ -3173,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3261,10 +3261,10 @@
         <v>0.641834</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>43.1312448</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4009,10 +4009,10 @@
         <v>0.144144</v>
       </c>
       <c r="M74">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5549,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/relatorios/repasses_liberados/dentistas/82483698468/2023-08-25_relatorio_repasses_82483698468.xlsx
+++ b/relatorios/repasses_liberados/dentistas/82483698468/2023-08-25_relatorio_repasses_82483698468.xlsx
@@ -841,10 +841,10 @@
         <v>0.534884</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N2">
-        <v>19.6837312</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -885,10 +885,10 @@
         <v>0.465116</v>
       </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.883712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1633,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N23">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N24">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1853,10 +1853,10 @@
         <v>0.888889</v>
       </c>
       <c r="M25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N25">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1897,10 +1897,10 @@
         <v>0.111111</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
-        <v>65</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2117,10 +2117,10 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2205,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2689,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2733,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2865,10 +2865,10 @@
         <v>0.465116</v>
       </c>
       <c r="M48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N48">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2997,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3173,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N55">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3217,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3437,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3613,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3701,10 +3701,10 @@
         <v>0.465116</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>11.162784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3745,10 +3745,10 @@
         <v>0.534884</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>14.7627984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3965,10 +3965,10 @@
         <v>0.855856</v>
       </c>
       <c r="M73">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N73">
-        <v>24.391896</v>
+        <v>32.522528</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4009,10 +4009,10 @@
         <v>0.144144</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>0.6918911999999999</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4229,10 +4229,10 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N79">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4317,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4493,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4581,10 +4581,10 @@
         <v>0.888889</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4625,10 +4625,10 @@
         <v>0.111111</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N88">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="M91">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N91">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4933,10 +4933,10 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5549,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
